--- a/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en País Vasco</t>
+          <t>Sensación de soledad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Andalucia</t>
+          <t>Sensación de soledad en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5576,7 +5576,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en C.Valenciana</t>
+          <t>Sensación de soledad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Barcelona</t>
+          <t>Sensación de soledad en Barcelona (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31679</t>
+          <t>55676</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28974</t>
+          <t>50605</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33722</t>
+          <t>60175</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43819</t>
+          <t>76106</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40338</t>
+          <t>69837</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47375</t>
+          <t>82303</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,89%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>75499</t>
+          <t>131782</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>70982</t>
+          <t>123295</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>79672</t>
+          <t>139667</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>73,76%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7833</t>
+          <t>13260</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10343</t>
+          <t>18421</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19358</t>
+          <t>29543</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16251</t>
+          <t>24057</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22765</t>
+          <t>35257</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>27191</t>
+          <t>42803</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>23296</t>
+          <t>36387</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>31506</t>
+          <t>50790</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>7407</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5603</t>
+          <t>8020</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>13351</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>7833</t>
+          <t>11675</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>7686</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>10385</t>
+          <t>17105</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>413</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>2078</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>7363</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>177114</t>
+          <t>357769</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>171195</t>
+          <t>344430</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182567</t>
+          <t>371200</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>165847</t>
+          <t>307361</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>159660</t>
+          <t>293348</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>171909</t>
+          <t>320707</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>342961</t>
+          <t>665130</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>334226</t>
+          <t>643185</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>351267</t>
+          <t>683422</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>74,42%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40324</t>
+          <t>85179</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35634</t>
+          <t>72971</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45789</t>
+          <t>97020</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56024</t>
+          <t>119545</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>50310</t>
+          <t>107352</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>134527</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>96348</t>
+          <t>204724</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>88264</t>
+          <t>187092</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>103987</t>
+          <t>224305</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>17565</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10210</t>
+          <t>24743</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9601</t>
+          <t>21160</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7132</t>
+          <t>14826</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>29383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>17252</t>
+          <t>38725</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>30172</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>21388</t>
+          <t>48717</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3309</t>
+          <t>6685</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5313</t>
+          <t>12439</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>9733</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>8293</t>
+          <t>16110</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>63138</t>
+          <t>161371</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>59506</t>
+          <t>152055</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66426</t>
+          <t>170804</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74292</t>
+          <t>174778</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>69910</t>
+          <t>162541</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>78201</t>
+          <t>184123</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>137429</t>
+          <t>336149</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>132409</t>
+          <t>320790</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>142942</t>
+          <t>351309</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>76,67%</t>
         </is>
       </c>
     </row>
@@ -1987,27 +1987,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>39270</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12682</t>
+          <t>30409</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19310</t>
+          <t>48675</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29017</t>
+          <t>63409</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25239</t>
+          <t>54171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33407</t>
+          <t>74252</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>44916</t>
+          <t>102679</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>39589</t>
+          <t>90309</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>49855</t>
+          <t>117269</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>12858</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>8373</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>19372</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>11835</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>8777</t>
+          <t>23190</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>225</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>896</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>5806</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>271932</t>
+          <t>574815</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>264756</t>
+          <t>556965</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>278936</t>
+          <t>590357</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>283957</t>
+          <t>558246</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>275866</t>
+          <t>538464</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>291646</t>
+          <t>576191</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>555889</t>
+          <t>1133061</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>543778</t>
+          <t>1107073</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>566119</t>
+          <t>1157982</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>64057</t>
+          <t>137709</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>57492</t>
+          <t>123145</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70594</t>
+          <t>153649</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104398</t>
+          <t>212497</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>96859</t>
+          <t>196040</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111590</t>
+          <t>230952</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>168455</t>
+          <t>350207</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>158603</t>
+          <t>328453</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>179597</t>
+          <t>373494</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -2669,102 +2669,102 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12144</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9454</t>
+          <t>18598</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15133</t>
+          <t>33341</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42037</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>33767</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>52998</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>67258</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>55920</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>80832</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
           <t>4,3%</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>19293</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>15700</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>23365</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>31437</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>26801</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>36640</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>8336</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6226</t>
+          <t>14609</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5605</t>
+          <t>11772</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>15374</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>10738</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>22380</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91788</t>
+          <t>90127</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>121732</t>
+          <t>118453</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>125431</t>
+          <t>124190</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>154558</t>
+          <t>155931</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>222595</t>
+          <t>222896</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>267084</t>
+          <t>266363</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>42,56%</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58068</t>
+          <t>58338</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84996</t>
+          <t>83801</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>146769</t>
+          <t>145595</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178307</t>
+          <t>178337</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>210314</t>
+          <t>210887</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>254539</t>
+          <t>254954</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,74%</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19602</t>
+          <t>20058</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36762</t>
+          <t>37396</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49055</t>
+          <t>48914</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>69998</t>
+          <t>70472</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>73514</t>
+          <t>73062</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>101721</t>
+          <t>101529</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16924</t>
+          <t>17475</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34627</t>
+          <t>34707</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28209</t>
+          <t>28154</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45905</t>
+          <t>45375</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>48729</t>
+          <t>48821</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73440</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>360140</t>
+          <t>369711</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>777876</t>
+          <t>780371</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>729821</t>
+          <t>737848</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1037974</t>
+          <t>1040207</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1103078</t>
+          <t>1112317</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1759273</t>
+          <t>1754381</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>62,8%</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>233379</t>
+          <t>230584</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>512250</t>
+          <t>512447</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>268107</t>
+          <t>260730</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>503309</t>
+          <t>498769</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>601451</t>
+          <t>594516</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>970977</t>
+          <t>965520</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,56%</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51929</t>
+          <t>47875</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>115851</t>
+          <t>113437</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57608</t>
+          <t>55869</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>114637</t>
+          <t>114215</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>127271</t>
+          <t>126290</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>217633</t>
+          <t>214686</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38931</t>
+          <t>39803</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>758265</t>
+          <t>746800</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22529</t>
+          <t>21908</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50372</t>
+          <t>50080</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>73691</t>
+          <t>72368</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>916054</t>
+          <t>989350</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>35,41%</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>293753</t>
+          <t>294586</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>335496</t>
+          <t>333341</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>274288</t>
+          <t>275943</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>307741</t>
+          <t>309520</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>61,86%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>69,41%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>576841</t>
+          <t>578650</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>633175</t>
+          <t>632744</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>70,06%</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94989</t>
+          <t>96277</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>132752</t>
+          <t>131851</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>104092</t>
+          <t>103803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>136283</t>
+          <t>135667</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>206319</t>
+          <t>208778</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>258072</t>
+          <t>257442</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,5%</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15907</t>
+          <t>16459</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34703</t>
+          <t>34103</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17632</t>
+          <t>17181</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34035</t>
+          <t>34133</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37332</t>
+          <t>37359</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61961</t>
+          <t>62558</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15708</t>
+          <t>15653</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4615</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15062</t>
+          <t>14286</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>10857</t>
+          <t>10271</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>26245</t>
+          <t>25160</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>693163</t>
+          <t>689790</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1212713</t>
+          <t>1206782</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1151864</t>
+          <t>1162346</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1544270</t>
+          <t>1586438</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1955673</t>
+          <t>1962124</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2619693</t>
+          <t>2571898</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>59,5%</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>397989</t>
+          <t>394337</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>691746</t>
+          <t>687002</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>493193</t>
+          <t>472677</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>788173</t>
+          <t>778484</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>990299</t>
+          <t>1008472</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1428801</t>
+          <t>1430113</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>33,08%</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94071</t>
+          <t>91032</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>170127</t>
+          <t>166326</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>128063</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>205584</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>234483</t>
+          <t>246800</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>352929</t>
+          <t>358614</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,3%</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74315</t>
+          <t>74232</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>927370</t>
+          <t>896932</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>58293</t>
+          <t>58473</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>98299</t>
+          <t>98810</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>149211</t>
+          <t>153714</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1180273</t>
+          <t>1242837</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55265</t>
+          <t>54435</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67513</t>
+          <t>67135</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>46339</t>
+          <t>45902</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62538</t>
+          <t>62506</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>106080</t>
+          <t>105087</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>126890</t>
+          <t>127909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>80,54%</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16203</t>
+          <t>16373</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10600</t>
+          <t>10782</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24296</t>
+          <t>25322</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17413</t>
+          <t>17082</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>36100</t>
+          <t>36800</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>23,17%</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10191</t>
+          <t>9855</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>11168</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>664</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>5678</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15887</t>
+          <t>15423</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5081</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18935</t>
+          <t>18320</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>272352</t>
+          <t>273042</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>291714</t>
+          <t>291795</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>238110</t>
+          <t>238855</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>261515</t>
+          <t>262086</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>514997</t>
+          <t>516701</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>545038</t>
+          <t>546780</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8940,12 +8940,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35260</t>
+          <t>35949</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52568</t>
+          <t>52727</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>52939</t>
+          <t>53958</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>73081</t>
+          <t>73879</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>94493</t>
+          <t>93249</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>120413</t>
+          <t>119918</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6898</t>
+          <t>7331</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15742</t>
+          <t>15630</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10959</t>
+          <t>10994</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>21013</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>20541</t>
+          <t>19758</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>33917</t>
+          <t>33898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -9194,12 +9194,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11318</t>
+          <t>11722</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9209,12 +9209,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9292</t>
+          <t>9358</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19909</t>
+          <t>20480</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15029</t>
+          <t>15251</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28591</t>
+          <t>28442</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>172210</t>
+          <t>172718</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>187871</t>
+          <t>188079</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>206183</t>
+          <t>207296</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>225644</t>
+          <t>226877</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>385398</t>
+          <t>384679</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>410160</t>
+          <t>411129</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>82,64%</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26164</t>
+          <t>26281</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40955</t>
+          <t>40857</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9552,12 +9552,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43270</t>
+          <t>42364</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62092</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9587,12 +9587,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9607,12 +9607,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>73153</t>
+          <t>71919</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>95859</t>
+          <t>97073</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9622,12 +9622,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -9650,12 +9650,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8099</t>
+          <t>8229</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9685,12 +9685,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13059</t>
+          <t>13107</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>7837</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17852</t>
+          <t>17989</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2907</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>627</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6319</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>511023</t>
+          <t>510558</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>538380</t>
+          <t>538604</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>502422</t>
+          <t>503502</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>538116</t>
+          <t>537747</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10043,12 +10043,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10063,12 +10063,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1024052</t>
+          <t>1025397</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1069194</t>
+          <t>1070495</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10078,12 +10078,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>73724</t>
+          <t>72910</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98329</t>
+          <t>98508</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>116855</t>
+          <t>115614</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>147672</t>
+          <t>147578</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>197924</t>
+          <t>197273</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>236270</t>
+          <t>236070</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11671</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22853</t>
+          <t>22306</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>21373</t>
+          <t>21890</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>36584</t>
+          <t>36239</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>35917</t>
+          <t>35689</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>54157</t>
+          <t>53458</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10304,12 +10304,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -10332,12 +10332,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15380</t>
+          <t>15736</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10347,12 +10347,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10367,12 +10367,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17261</t>
+          <t>17128</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>34866</t>
+          <t>34948</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>26185</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>44903</t>
+          <t>45159</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Sensación de soledad en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55676</t>
+          <t>114955</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50605</t>
+          <t>98833</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60175</t>
+          <t>129435</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76106</t>
+          <t>151611</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>69837</t>
+          <t>135470</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>82303</t>
+          <t>168561</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>369</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>131782</t>
+          <t>266566</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>123295</t>
+          <t>243932</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>139667</t>
+          <t>289860</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>42,08%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13260</t>
+          <t>82257</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9652</t>
+          <t>69207</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18421</t>
+          <t>96278</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>278</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29543</t>
+          <t>174213</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24057</t>
+          <t>156789</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35257</t>
+          <t>189462</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>372</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>42803</t>
+          <t>256470</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>36387</t>
+          <t>233760</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>50790</t>
+          <t>279364</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>40,56%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>30569</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>22414</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7407</t>
+          <t>40702</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8020</t>
+          <t>65381</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>54346</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13351</t>
+          <t>78218</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>148</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>11675</t>
+          <t>95951</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>7686</t>
+          <t>81325</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>17105</t>
+          <t>111751</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>27670</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19657</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2078</t>
+          <t>38595</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>42131</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>33263</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>53341</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>69801</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>56447</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>7363</t>
+          <t>83718</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255452</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255452</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255452</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>433336</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>433336</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>433336</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>987</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>688788</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>688788</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>688788</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>357769</t>
+          <t>683851</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>344430</t>
+          <t>640774</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>371200</t>
+          <t>723510</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>825</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>307361</t>
+          <t>657999</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>293348</t>
+          <t>621231</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>320707</t>
+          <t>690942</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>665130</t>
+          <t>1341850</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>643185</t>
+          <t>1290683</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>683422</t>
+          <t>1392327</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>54,46%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85179</t>
+          <t>459155</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72971</t>
+          <t>420122</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97020</t>
+          <t>501530</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>119545</t>
+          <t>460482</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>107352</t>
+          <t>428493</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>134527</t>
+          <t>495761</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>204724</t>
+          <t>919637</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>187092</t>
+          <t>865980</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>224305</t>
+          <t>970250</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17565</t>
+          <t>99063</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12811</t>
+          <t>80317</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24743</t>
+          <t>121906</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21160</t>
+          <t>107731</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14826</t>
+          <t>92328</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29383</t>
+          <t>131608</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>237</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>38725</t>
+          <t>206794</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>30172</t>
+          <t>181727</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>48717</t>
+          <t>236504</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>9,25%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6685</t>
+          <t>44463</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>33329</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12439</t>
+          <t>59149</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>43872</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>34802</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>56312</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>110</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>9733</t>
+          <t>88335</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>72459</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>16110</t>
+          <t>107808</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286533</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286533</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286533</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270084</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270084</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270084</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556616</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556616</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556616</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>161371</t>
+          <t>341698</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>152055</t>
+          <t>320306</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>170804</t>
+          <t>363508</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>174778</t>
+          <t>326715</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>162541</t>
+          <t>309282</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>184123</t>
+          <t>345527</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>69,68%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>745</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>336149</t>
+          <t>668414</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>320790</t>
+          <t>639881</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>351309</t>
+          <t>698058</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>76,67%</t>
+          <t>69,4%</t>
         </is>
       </c>
     </row>
@@ -1982,107 +1982,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39270</t>
+          <t>127484</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30409</t>
+          <t>108318</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48675</t>
+          <t>148609</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63409</t>
+          <t>132713</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>54171</t>
+          <t>116608</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>74252</t>
+          <t>150864</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>316</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>102679</t>
+          <t>260197</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>90309</t>
+          <t>234734</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>117269</t>
+          <t>287279</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>28,56%</t>
         </is>
       </c>
     </row>
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>31390</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>21656</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7276</t>
+          <t>45082</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12858</t>
+          <t>26474</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8373</t>
+          <t>18634</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19372</t>
+          <t>36744</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>16858</t>
+          <t>57864</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11835</t>
+          <t>44965</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>23190</t>
+          <t>74123</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -2208,107 +2208,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>16935</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>10004</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>5203</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>15929</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>19311</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>12005</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>5806</t>
+          <t>28037</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2438,107 +2438,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>574815</t>
+          <t>1140504</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>556965</t>
+          <t>1091278</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>590357</t>
+          <t>1191875</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>558246</t>
+          <t>1136325</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>538464</t>
+          <t>1095636</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>576191</t>
+          <t>1181375</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>2502</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1133061</t>
+          <t>2276830</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1107073</t>
+          <t>2207863</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1157982</t>
+          <t>2342745</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>55,11%</t>
         </is>
       </c>
     </row>
@@ -2551,107 +2551,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>137709</t>
+          <t>668896</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>123145</t>
+          <t>623000</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>153649</t>
+          <t>720330</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>212497</t>
+          <t>767408</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>196040</t>
+          <t>723712</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>230952</t>
+          <t>806910</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>350207</t>
+          <t>1436304</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>328453</t>
+          <t>1372314</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>373494</t>
+          <t>1500763</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>35,3%</t>
         </is>
       </c>
     </row>
@@ -2664,107 +2664,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25220</t>
+          <t>161023</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18598</t>
+          <t>138611</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33341</t>
+          <t>187470</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42037</t>
+          <t>199586</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>33767</t>
+          <t>177076</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>52998</t>
+          <t>224249</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>454</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>67258</t>
+          <t>360609</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>55920</t>
+          <t>325433</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>80832</t>
+          <t>398518</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -2777,107 +2777,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8336</t>
+          <t>81440</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>64700</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14609</t>
+          <t>99876</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>96007</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>79703</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11772</t>
+          <t>112787</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>231</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15374</t>
+          <t>177447</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10738</t>
+          <t>156551</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>22380</t>
+          <t>202648</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -2890,22 +2890,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051864</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051864</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051864</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2199326</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2199326</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2199326</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4251190</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4251190</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4251190</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Sensación de soledad en Barcelona (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3246,107 +3246,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>105166</t>
+          <t>62133</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90127</t>
+          <t>54435</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>118453</t>
+          <t>67135</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>139710</t>
+          <t>55323</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>124190</t>
+          <t>45902</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>155931</t>
+          <t>62506</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>293</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>244876</t>
+          <t>117456</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>222896</t>
+          <t>105087</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>266363</t>
+          <t>127909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>80,54%</t>
         </is>
       </c>
     </row>
@@ -3359,107 +3359,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70682</t>
+          <t>8694</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58338</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83801</t>
+          <t>16373</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162531</t>
+          <t>16426</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>145595</t>
+          <t>10782</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178337</t>
+          <t>25322</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>233213</t>
+          <t>25120</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>210887</t>
+          <t>17082</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>254954</t>
+          <t>36800</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>23,17%</t>
         </is>
       </c>
     </row>
@@ -3472,107 +3472,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27859</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20058</t>
+          <t>250</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37396</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59246</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48914</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>70472</t>
+          <t>9855</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>87105</t>
+          <t>6027</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>73062</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>101529</t>
+          <t>11168</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -3585,107 +3585,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24719</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17475</t>
+          <t>664</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34707</t>
+          <t>5678</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35957</t>
+          <t>8026</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28154</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45375</t>
+          <t>15423</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>60675</t>
+          <t>10213</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>48821</t>
+          <t>5081</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73440</t>
+          <t>18320</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228426</t>
+          <t>74043</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228426</t>
+          <t>74043</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228426</t>
+          <t>74043</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3733,22 +3733,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>397444</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>397444</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>397444</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3768,22 +3768,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>389</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>625870</t>
+          <t>158817</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>625870</t>
+          <t>158817</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>625870</t>
+          <t>158817</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3815,107 +3815,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>619</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>631583</t>
+          <t>282156</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>369711</t>
+          <t>273042</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>780371</t>
+          <t>291795</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>854011</t>
+          <t>249539</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>737848</t>
+          <t>238855</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1040207</t>
+          <t>262086</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1485594</t>
+          <t>531696</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1112317</t>
+          <t>516701</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1754381</t>
+          <t>546780</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>77,6%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -3928,107 +3928,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>409388</t>
+          <t>43618</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>230584</t>
+          <t>35949</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>512447</t>
+          <t>52727</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>405800</t>
+          <t>63277</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>260730</t>
+          <t>53958</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>498769</t>
+          <t>73879</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>815188</t>
+          <t>106895</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>594516</t>
+          <t>93249</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>965520</t>
+          <t>119918</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -4041,107 +4041,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85607</t>
+          <t>10810</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47875</t>
+          <t>7331</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>113437</t>
+          <t>15630</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88683</t>
+          <t>15391</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55869</t>
+          <t>10994</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>114215</t>
+          <t>21013</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>174290</t>
+          <t>26201</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>126290</t>
+          <t>19758</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214686</t>
+          <t>33898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -4154,107 +4154,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>281790</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39803</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>746800</t>
+          <t>11722</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36785</t>
+          <t>13956</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21908</t>
+          <t>9358</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50080</t>
+          <t>20480</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>318575</t>
+          <t>20372</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>72368</t>
+          <t>15251</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>989350</t>
+          <t>28442</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -4267,22 +4267,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>759</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1408368</t>
+          <t>343000</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1408368</t>
+          <t>343000</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1408368</t>
+          <t>343000</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4302,22 +4302,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>778</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1385278</t>
+          <t>342163</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1385278</t>
+          <t>342163</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1385278</t>
+          <t>342163</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2793646</t>
+          <t>685164</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2793646</t>
+          <t>685164</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2793646</t>
+          <t>685164</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4384,107 +4384,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>314361</t>
+          <t>181488</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>294586</t>
+          <t>172718</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>333341</t>
+          <t>188079</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>291116</t>
+          <t>216948</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>275943</t>
+          <t>207296</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>309520</t>
+          <t>226877</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>605477</t>
+          <t>398436</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>578650</t>
+          <t>384679</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>632744</t>
+          <t>411129</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>82,64%</t>
         </is>
       </c>
     </row>
@@ -4497,107 +4497,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>113147</t>
+          <t>32386</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96277</t>
+          <t>26281</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>131851</t>
+          <t>40857</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119090</t>
+          <t>51406</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>103803</t>
+          <t>42364</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>135667</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>229</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>232237</t>
+          <t>83791</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>208778</t>
+          <t>71919</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>257442</t>
+          <t>97073</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -4610,107 +4610,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23990</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16459</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34103</t>
+          <t>8229</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24636</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17181</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34133</t>
+          <t>13107</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>48626</t>
+          <t>12025</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37359</t>
+          <t>7837</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>62558</t>
+          <t>17989</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -4723,107 +4723,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8303</t>
+          <t>815</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15653</t>
+          <t>2907</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8532</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>627</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14286</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>16835</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>10271</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>25160</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>750</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4953,107 +4953,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1051109</t>
+          <t>525777</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>689790</t>
+          <t>510558</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1206782</t>
+          <t>538604</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1284838</t>
+          <t>521811</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1162346</t>
+          <t>503502</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1586438</t>
+          <t>537747</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2335947</t>
+          <t>1047588</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1962124</t>
+          <t>1025397</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2571898</t>
+          <t>1070495</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -5066,107 +5066,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>593217</t>
+          <t>84697</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>394337</t>
+          <t>72910</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>687002</t>
+          <t>98508</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>687421</t>
+          <t>131108</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>472677</t>
+          <t>115614</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>778484</t>
+          <t>147578</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>535</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>1280638</t>
+          <t>215806</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1008472</t>
+          <t>197273</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1430113</t>
+          <t>236070</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -5179,107 +5179,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>137457</t>
+          <t>16023</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>91032</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166326</t>
+          <t>22306</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>172564</t>
+          <t>28230</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>124335</t>
+          <t>21890</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>36239</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>310021</t>
+          <t>44253</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>246800</t>
+          <t>35689</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>358614</t>
+          <t>53458</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -5292,107 +5292,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>314812</t>
+          <t>9419</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74232</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>896932</t>
+          <t>15736</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>81274</t>
+          <t>24404</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>58473</t>
+          <t>17128</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>98810</t>
+          <t>34948</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>396085</t>
+          <t>33823</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>153714</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1242837</t>
+          <t>45159</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -5405,22 +5405,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2096595</t>
+          <t>635917</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2096595</t>
+          <t>635917</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2096595</t>
+          <t>635917</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5440,22 +5440,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2226097</t>
+          <t>705554</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2226097</t>
+          <t>705554</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2226097</t>
+          <t>705554</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4322691</t>
+          <t>1341471</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4322691</t>
+          <t>1341471</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4322691</t>
+          <t>1341471</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Barcelona (tasa de respuesta: 99,82%)</t>
+          <t>Sensación de soledad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8276,107 +8276,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62133</t>
+          <t>55676</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54435</t>
+          <t>50605</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67135</t>
+          <t>60175</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>252</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55323</t>
+          <t>76106</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45902</t>
+          <t>69837</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62506</t>
+          <t>82303</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,26%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>427</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>117456</t>
+          <t>131782</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>105087</t>
+          <t>123295</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>127909</t>
+          <t>139667</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>73,76%</t>
         </is>
       </c>
     </row>
@@ -8389,107 +8389,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8694</t>
+          <t>13260</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16373</t>
+          <t>18421</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16426</t>
+          <t>29543</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10782</t>
+          <t>24057</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25322</t>
+          <t>35257</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>25120</t>
+          <t>42803</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17082</t>
+          <t>36387</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>36800</t>
+          <t>50790</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -8502,107 +8502,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>7407</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>8020</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9855</t>
+          <t>13351</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>11675</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>7686</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11168</t>
+          <t>17105</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -8615,107 +8615,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>413</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>2078</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8026</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15423</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10213</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5081</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18320</t>
+          <t>7363</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -8728,22 +8728,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74043</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74043</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74043</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>158817</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>158817</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>158817</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8845,107 +8845,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>282156</t>
+          <t>357769</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>273042</t>
+          <t>344430</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>291795</t>
+          <t>371200</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,26%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>955</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>249539</t>
+          <t>307361</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>238855</t>
+          <t>293348</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>262086</t>
+          <t>320707</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>531696</t>
+          <t>665130</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>516701</t>
+          <t>643185</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>546780</t>
+          <t>683422</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>74,42%</t>
         </is>
       </c>
     </row>
@@ -8958,107 +8958,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43618</t>
+          <t>85179</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35949</t>
+          <t>72971</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52727</t>
+          <t>97020</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63277</t>
+          <t>119545</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53958</t>
+          <t>107352</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>73879</t>
+          <t>134527</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>588</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>106895</t>
+          <t>204724</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>93249</t>
+          <t>187092</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>119918</t>
+          <t>224305</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -9071,107 +9071,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10810</t>
+          <t>17565</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7331</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15630</t>
+          <t>24743</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15391</t>
+          <t>21160</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10994</t>
+          <t>14826</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21013</t>
+          <t>29383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>26201</t>
+          <t>38725</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>19758</t>
+          <t>30172</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>33898</t>
+          <t>48717</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -9184,107 +9184,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>6685</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3417</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11722</t>
+          <t>12439</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13956</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9358</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20480</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>20372</t>
+          <t>9733</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15251</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28442</t>
+          <t>16110</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>343000</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>343000</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>343000</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9332,22 +9332,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>342163</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>342163</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>342163</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9367,22 +9367,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>685164</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>685164</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>685164</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9414,107 +9414,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>181488</t>
+          <t>161371</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>172718</t>
+          <t>152055</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>188079</t>
+          <t>170804</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>216948</t>
+          <t>174778</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>207296</t>
+          <t>162541</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>226877</t>
+          <t>184123</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>847</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>398436</t>
+          <t>336149</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>384679</t>
+          <t>320790</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>411129</t>
+          <t>351309</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>70,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>76,67%</t>
         </is>
       </c>
     </row>
@@ -9527,107 +9527,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32386</t>
+          <t>39270</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26281</t>
+          <t>30409</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40857</t>
+          <t>48675</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51406</t>
+          <t>63409</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42364</t>
+          <t>54171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61107</t>
+          <t>74252</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>274</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>83791</t>
+          <t>102679</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>71919</t>
+          <t>90309</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>97073</t>
+          <t>117269</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -9640,107 +9640,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8229</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>12858</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4315</t>
+          <t>8373</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13107</t>
+          <t>19372</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12025</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7837</t>
+          <t>11835</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17989</t>
+          <t>23190</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -9753,107 +9753,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4184</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2423</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>627</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>5941</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>896</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>5806</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -9866,22 +9866,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9936,22 +9936,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9983,107 +9983,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>525777</t>
+          <t>574815</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>510558</t>
+          <t>556965</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>538604</t>
+          <t>590357</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>521811</t>
+          <t>558246</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>503502</t>
+          <t>538464</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>537747</t>
+          <t>576191</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2587</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1047588</t>
+          <t>1133061</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1025397</t>
+          <t>1107073</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1070495</t>
+          <t>1157982</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -10096,107 +10096,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>84697</t>
+          <t>137709</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>72910</t>
+          <t>123145</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98508</t>
+          <t>153649</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>642</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>131108</t>
+          <t>212497</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>115614</t>
+          <t>196040</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>147578</t>
+          <t>230952</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>215806</t>
+          <t>350207</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>197273</t>
+          <t>328453</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>236070</t>
+          <t>373494</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -10209,107 +10209,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16023</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11397</t>
+          <t>18598</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22306</t>
+          <t>33341</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>28230</t>
+          <t>42037</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>21890</t>
+          <t>33767</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>36239</t>
+          <t>52998</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>186</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>44253</t>
+          <t>67258</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>35689</t>
+          <t>55920</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>53458</t>
+          <t>80832</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -10322,107 +10322,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9419</t>
+          <t>8336</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15736</t>
+          <t>14609</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24404</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17128</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>34948</t>
+          <t>11772</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>33823</t>
+          <t>15374</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>25220</t>
+          <t>10738</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>45159</t>
+          <t>22380</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -10435,22 +10435,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>635917</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>635917</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>635917</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>705554</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>705554</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>705554</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10505,22 +10505,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1341471</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1341471</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1341471</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
